--- a/final-poi/src/test/resources/excel.xlsx
+++ b/final-poi/src/test/resources/excel.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11790"/>
+    <workbookView windowWidth="21000" windowHeight="11790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SHEET NAME" sheetId="1" r:id="rId1"/>
+    <sheet name="SHEET NAME (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
   <si>
     <t>姓名</t>
   </si>
@@ -49,10 +50,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -76,75 +77,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,39 +206,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,25 +236,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,37 +386,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,115 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,6 +446,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -455,6 +471,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,6 +510,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -487,57 +527,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,133 +547,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,6 +1008,125 @@
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44575.102037037</v>
+      </c>
+      <c r="D2">
+        <f>B2/2</f>
+        <v>6</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <f>B3/2</f>
+        <v>9</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <f>B4/2</f>
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <f>B5/2</f>
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <f>AVERAGE(B2:B5)</f>
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
